--- a/INTLINE/data/193/AUSE/Australian Index - Weekly.xlsx
+++ b/INTLINE/data/193/AUSE/Australian Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CFY3"/>
+  <dimension ref="A1:CGC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11399,15 +11399,35 @@
       </c>
       <c r="CFW1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="CFX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CFY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="CFZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="CGA1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CFX1" s="1" t="inlineStr">
+      <c r="CGB1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CFY1" s="1" t="inlineStr">
+      <c r="CGC1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -18032,19 +18052,31 @@
         <v>7785.9</v>
       </c>
       <c r="CFV2" t="n">
-        <v>7767</v>
-      </c>
-      <c r="CFW2" t="inlineStr">
+        <v>7772</v>
+      </c>
+      <c r="CFW2" t="n">
+        <v>7822.2</v>
+      </c>
+      <c r="CFX2" t="n">
+        <v>7768.2</v>
+      </c>
+      <c r="CFY2" t="n">
+        <v>7724.8</v>
+      </c>
+      <c r="CFZ2" t="n">
+        <v>7576.1</v>
+      </c>
+      <c r="CGA2" t="inlineStr">
         <is>
           <t>SAOI</t>
         </is>
       </c>
-      <c r="CFX2" t="inlineStr">
+      <c r="CGB2" t="inlineStr">
         <is>
           <t>Sydney All Ordinaries Index, Close Price</t>
         </is>
       </c>
-      <c r="CFY2" t="inlineStr">
+      <c r="CGC2" t="inlineStr">
         <is>
           <t>Index: 1980.01.01=500</t>
         </is>
@@ -23375,19 +23407,31 @@
         <v>7493.8</v>
       </c>
       <c r="CFV3" t="n">
-        <v>7467.6</v>
-      </c>
-      <c r="CFW3" t="inlineStr">
+        <v>7478</v>
+      </c>
+      <c r="CFW3" t="n">
+        <v>7523.4</v>
+      </c>
+      <c r="CFX3" t="n">
+        <v>7473.3</v>
+      </c>
+      <c r="CFY3" t="n">
+        <v>7423.5</v>
+      </c>
+      <c r="CFZ3" t="n">
+        <v>7311.6</v>
+      </c>
+      <c r="CGA3" t="inlineStr">
         <is>
           <t>SP200</t>
         </is>
       </c>
-      <c r="CFX3" t="inlineStr">
+      <c r="CGB3" t="inlineStr">
         <is>
           <t>Australian Stock Market Index, S&amp;P/ASX 200, Close Price</t>
         </is>
       </c>
-      <c r="CFY3" t="inlineStr">
+      <c r="CGC3" t="inlineStr">
         <is>
           <t>Index: 1979.01.01=500</t>
         </is>

--- a/INTLINE/data/193/AUSE/Australian Index - Weekly.xlsx
+++ b/INTLINE/data/193/AUSE/Australian Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CGJ3"/>
+  <dimension ref="A1:CGK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11454,15 +11454,20 @@
       </c>
       <c r="CGH1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="CGI1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CGI1" s="1" t="inlineStr">
+      <c r="CGJ1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CGJ1" s="1" t="inlineStr">
+      <c r="CGK1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -18120,19 +18125,22 @@
         <v>6663.3</v>
       </c>
       <c r="CGG2" t="n">
-        <v>6681.8</v>
-      </c>
-      <c r="CGH2" t="inlineStr">
+        <v>6762.4</v>
+      </c>
+      <c r="CGH2" t="n">
+        <v>6924.6</v>
+      </c>
+      <c r="CGI2" t="inlineStr">
         <is>
           <t>SAOI</t>
         </is>
       </c>
-      <c r="CGI2" t="inlineStr">
+      <c r="CGJ2" t="inlineStr">
         <is>
           <t>Sydney All Ordinaries Index, Close Price</t>
         </is>
       </c>
-      <c r="CGJ2" t="inlineStr">
+      <c r="CGK2" t="inlineStr">
         <is>
           <t>Index: 1980.01.01=500</t>
         </is>
@@ -23496,19 +23504,22 @@
         <v>6474.8</v>
       </c>
       <c r="CGG3" t="n">
-        <v>6508.4</v>
-      </c>
-      <c r="CGH3" t="inlineStr">
+        <v>6578.7</v>
+      </c>
+      <c r="CGH3" t="n">
+        <v>6734.5</v>
+      </c>
+      <c r="CGI3" t="inlineStr">
         <is>
           <t>SP200</t>
         </is>
       </c>
-      <c r="CGI3" t="inlineStr">
+      <c r="CGJ3" t="inlineStr">
         <is>
           <t>Australian Stock Market Index, S&amp;P/ASX 200, Close Price</t>
         </is>
       </c>
-      <c r="CGJ3" t="inlineStr">
+      <c r="CGK3" t="inlineStr">
         <is>
           <t>Index: 1979.01.01=500</t>
         </is>
